--- a/output/0/tRNA-Gln-CTG-1-1.xlsx
+++ b/output/0/tRNA-Gln-CTG-1-1.xlsx
@@ -12,78 +12,60 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="50">
   <si>
     <t>chr6</t>
   </si>
   <si>
-    <t>18836388</t>
-  </si>
-  <si>
-    <t>18836411</t>
+    <t>18836405</t>
+  </si>
+  <si>
+    <t>18836428</t>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>18836408</t>
+  </si>
+  <si>
+    <t>150,150,150</t>
+  </si>
+  <si>
+    <t>255,0,0</t>
+  </si>
+  <si>
+    <t>GAGTGCTAACCATTACACCA</t>
+  </si>
+  <si>
+    <t>TGG</t>
+  </si>
+  <si>
+    <t>This guide sequence is not unique in the genome. The specificity scores were not determined.</t>
+  </si>
+  <si>
+    <t>99% (72)</t>
+  </si>
+  <si>
+    <t>25% (33)</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>Sequence is not unique in genome</t>
+  </si>
+  <si>
+    <t>18836431</t>
+  </si>
+  <si>
     <t>+</t>
-  </si>
-  <si>
-    <t>18836408</t>
-  </si>
-  <si>
-    <t>150,150,150</t>
-  </si>
-  <si>
-    <t>255,0,0</t>
-  </si>
-  <si>
-    <t>CAGCAGGGAGGAGGGTTCCA</t>
-  </si>
-  <si>
-    <t>TGG</t>
-  </si>
-  <si>
-    <t>This guide sequence is not unique in the genome. The specificity scores were not determined.</t>
-  </si>
-  <si>
-    <t>56% (52)</t>
-  </si>
-  <si>
-    <t>91% (70)</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>74</t>
-  </si>
-  <si>
-    <t>Sequence is not unique in genome</t>
-  </si>
-  <si>
-    <t>18836405</t>
-  </si>
-  <si>
-    <t>18836428</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>GAGTGCTAACCATTACACCA</t>
-  </si>
-  <si>
-    <t>99% (72)</t>
-  </si>
-  <si>
-    <t>25% (33)</t>
-  </si>
-  <si>
-    <t>65</t>
-  </si>
-  <si>
-    <t>18836431</t>
   </si>
   <si>
     <t>TGGTGTAATGGTTAGCACTC</t>
@@ -224,7 +206,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:S7"/>
+  <dimension ref="A1:S6"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -247,10 +229,10 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H1" t="s">
         <v>6</v>
@@ -294,22 +276,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
         <v>16</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
         <v>17</v>
-      </c>
-      <c r="D2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" t="s">
-        <v>18</v>
       </c>
       <c r="F2" t="s">
         <v>5</v>
       </c>
       <c r="G2" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="H2" t="s">
         <v>6</v>
@@ -321,7 +303,7 @@
         <v>7</v>
       </c>
       <c r="K2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L2" t="s">
         <v>9</v>
@@ -330,16 +312,16 @@
         <v>10</v>
       </c>
       <c r="N2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O2" t="s">
         <v>20</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>21</v>
       </c>
-      <c r="P2" t="s">
-        <v>22</v>
-      </c>
       <c r="Q2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R2" t="s">
         <v>15</v>
@@ -353,7 +335,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
         <v>23</v>
@@ -365,10 +347,10 @@
         <v>4</v>
       </c>
       <c r="F3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="H3" t="s">
         <v>6</v>
@@ -380,7 +362,7 @@
         <v>7</v>
       </c>
       <c r="K3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L3" t="s">
         <v>9</v>
@@ -389,16 +371,16 @@
         <v>10</v>
       </c>
       <c r="N3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Q3" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="R3" t="s">
         <v>15</v>
@@ -412,22 +394,22 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" t="s">
         <v>29</v>
       </c>
-      <c r="D4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" t="s">
-        <v>30</v>
-      </c>
       <c r="G4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H4" t="s">
         <v>6</v>
@@ -439,25 +421,25 @@
         <v>7</v>
       </c>
       <c r="K4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L4" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="M4" t="s">
         <v>10</v>
       </c>
       <c r="N4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="O4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="P4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Q4" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="R4" t="s">
         <v>15</v>
@@ -471,22 +453,22 @@
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C5" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D5" t="s">
         <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="F5" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G5" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H5" t="s">
         <v>6</v>
@@ -498,25 +480,25 @@
         <v>7</v>
       </c>
       <c r="K5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="L5" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="M5" t="s">
         <v>10</v>
       </c>
       <c r="N5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="P5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q5" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="R5" t="s">
         <v>15</v>
@@ -542,10 +524,10 @@
         <v>4</v>
       </c>
       <c r="F6" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G6" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="H6" t="s">
         <v>6</v>
@@ -557,89 +539,30 @@
         <v>7</v>
       </c>
       <c r="K6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L6" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="M6" t="s">
         <v>10</v>
       </c>
       <c r="N6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O6" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="P6" t="s">
         <v>49</v>
       </c>
       <c r="Q6" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="R6" t="s">
         <v>15</v>
       </c>
       <c r="S6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" t="s">
-        <v>50</v>
-      </c>
-      <c r="C7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G7" t="s">
-        <v>51</v>
-      </c>
-      <c r="H7" t="s">
-        <v>6</v>
-      </c>
-      <c r="I7" t="s">
-        <v>6</v>
-      </c>
-      <c r="J7" t="s">
-        <v>7</v>
-      </c>
-      <c r="K7" t="s">
-        <v>53</v>
-      </c>
-      <c r="L7" t="s">
-        <v>39</v>
-      </c>
-      <c r="M7" t="s">
-        <v>10</v>
-      </c>
-      <c r="N7" t="s">
-        <v>54</v>
-      </c>
-      <c r="O7" t="s">
-        <v>41</v>
-      </c>
-      <c r="P7" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>43</v>
-      </c>
-      <c r="R7" t="s">
-        <v>15</v>
-      </c>
-      <c r="S7" t="s">
         <v>3</v>
       </c>
     </row>
